--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1760420.585581479</v>
+        <v>1756143.493526435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2284470.912813043</v>
+        <v>2331819.878800775</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791242</v>
+        <v>419463.0933791251</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9122106.981288539</v>
+        <v>9123660.78783888</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>294.2932961585166</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>395.1201546155796</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>43.81937578460314</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0.2046480013986479</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>149.7936256383479</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>128.4127815183852</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>77.616476375489</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>7.678496897048662</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>13.62409786082869</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>43.81937578460314</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3.924018829883062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>196.5855586146299</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>143.5417746516434</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.4408181704035</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>100.2698474393481</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1309,10 +1309,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>313.8343050701093</v>
+        <v>320.116861150632</v>
       </c>
       <c r="C11" t="n">
-        <v>306.5882532979251</v>
+        <v>312.8708093784477</v>
       </c>
       <c r="D11" t="n">
-        <v>79.17502395855345</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>315.9021964504473</v>
+        <v>322.1847525309699</v>
       </c>
       <c r="F11" t="n">
-        <v>330.0700009011484</v>
+        <v>336.3525569816711</v>
       </c>
       <c r="G11" t="n">
-        <v>326.3756347727032</v>
+        <v>332.6581908532259</v>
       </c>
       <c r="H11" t="n">
-        <v>238.1867267450006</v>
+        <v>235.5585258554706</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>60.58080863480888</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.1929263241863</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>170.5397090855737</v>
+        <v>176.8222651660964</v>
       </c>
       <c r="V11" t="n">
-        <v>256.0302480193432</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>284.6335514972218</v>
+        <v>290.9161075777445</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>309.1851419126228</v>
       </c>
       <c r="Y11" t="n">
-        <v>309.8703088044313</v>
+        <v>316.1528648849539</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.13012965101973</v>
       </c>
       <c r="D13" t="n">
-        <v>71.42128878233676</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>71.34773083521587</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.09718225498314</v>
+        <v>79.37973833550583</v>
       </c>
       <c r="G13" t="n">
-        <v>83.91602017737527</v>
+        <v>90.19857625789797</v>
       </c>
       <c r="H13" t="n">
-        <v>71.26827234394732</v>
+        <v>77.55082842447001</v>
       </c>
       <c r="I13" t="n">
-        <v>49.10798792511925</v>
+        <v>55.39054400564194</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.00648628957516</v>
+        <v>46.28904237009786</v>
       </c>
       <c r="S13" t="n">
-        <v>118.1324297951025</v>
+        <v>124.4149858756252</v>
       </c>
       <c r="T13" t="n">
-        <v>150.7063681292746</v>
+        <v>156.9889242097973</v>
       </c>
       <c r="U13" t="n">
-        <v>199.9289106563444</v>
+        <v>206.2114667368671</v>
       </c>
       <c r="V13" t="n">
-        <v>180.6640585432104</v>
+        <v>186.9466146237331</v>
       </c>
       <c r="W13" t="n">
-        <v>197.8416048639605</v>
+        <v>204.1241609444832</v>
       </c>
       <c r="X13" t="n">
-        <v>65.37795011934794</v>
+        <v>142.1564609518411</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.2254473873494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>203.2803676653565</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C14" t="n">
-        <v>306.5882532979251</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>298.9312243113253</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>315.9021964504473</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
-        <v>330.0700009011484</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>326.3756347727032</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>210.0099040970692</v>
       </c>
       <c r="I14" t="n">
-        <v>54.29825255428618</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>138.6101032320038</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>170.5397090855737</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>256.0302480193432</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>302.9025858321001</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>309.8703088044313</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.92651136849588</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C16" t="n">
-        <v>85.84757357049703</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D16" t="n">
-        <v>71.42128878233676</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F16" t="n">
-        <v>73.09718225498314</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G16" t="n">
-        <v>83.91602017737527</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H16" t="n">
-        <v>71.26827234394732</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I16" t="n">
-        <v>49.10798792511925</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.00648628957516</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T16" t="n">
-        <v>150.7063681292746</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U16" t="n">
-        <v>199.9289106563444</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>180.6640585432104</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W16" t="n">
-        <v>197.8416048639605</v>
+        <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>149.0840258106731</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.2254473873494</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="17">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386987</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799147</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135877</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.59377642287555</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277567</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059322</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006895</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.995969188804</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.1430974390864</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092613</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380524</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357251</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596464</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253669</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708617</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369185</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792625</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.5209712559388</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2558,7 +2558,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>106.7954540295029</v>
       </c>
       <c r="E26" t="n">
         <v>304.5664151603044</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2618,7 +2618,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
-        <v>34.69022282146278</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
         <v>298.5345275142884</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>121.6985347882858</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>77.65269408560579</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
         <v>268.1977203190365</v>
@@ -3044,10 +3044,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U32" t="n">
         <v>122.835232954163</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
         <v>103.0018919978638</v>
@@ -3247,13 +3247,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
         <v>278.6711586412924</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380504</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596444</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325497</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>283.748166309364</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>12.22705397719712</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>268.8450855505801</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>285.816057689702</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>299.9838621404031</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>296.289496011958</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>208.1005879842554</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>24.21211379354092</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>52.10678756344105</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059243</v>
+        <v>108.5239644712586</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>140.4535703248285</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>225.9441092585979</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>254.5474127364765</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>272.8164470713548</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>279.784170043686</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>70.61430655946937</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>55.76143480975178</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>41.3351500215915</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>41.26159207447061</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>43.01104349423788</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>53.82988141663002</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>41.18213358320206</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>19.02184916437399</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.920347528829907</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>88.04629103435722</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>120.6202293685293</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>169.8427718955992</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>150.5779197824651</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>167.7554661032153</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>118.9978870499278</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>108.1393086266042</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1474.169496276467</v>
+        <v>854.3431318169273</v>
       </c>
       <c r="C2" t="n">
-        <v>1474.169496276467</v>
+        <v>854.3431318169273</v>
       </c>
       <c r="D2" t="n">
-        <v>1088.728367493135</v>
+        <v>854.3431318169273</v>
       </c>
       <c r="E2" t="n">
-        <v>791.4624117774612</v>
+        <v>451.7596069334718</v>
       </c>
       <c r="F2" t="n">
-        <v>778.608377347843</v>
+        <v>438.9055725038536</v>
       </c>
       <c r="G2" t="n">
-        <v>365.4456218358461</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="H2" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="I2" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="J2" t="n">
-        <v>41.36257140233675</v>
+        <v>184.4440781242176</v>
       </c>
       <c r="K2" t="n">
-        <v>274.7193642705412</v>
+        <v>543.4264341516794</v>
       </c>
       <c r="L2" t="n">
-        <v>768.0396559890701</v>
+        <v>1035.880961192124</v>
       </c>
       <c r="M2" t="n">
-        <v>768.0396559890701</v>
+        <v>1497.260733729028</v>
       </c>
       <c r="N2" t="n">
-        <v>1279.901477092987</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.941077985316</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="P2" t="n">
-        <v>2068.128570116838</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="Q2" t="n">
-        <v>2068.128570116838</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="R2" t="n">
-        <v>2030.135656402359</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="S2" t="n">
-        <v>1863.62210134341</v>
+        <v>1823.201705710523</v>
       </c>
       <c r="T2" t="n">
-        <v>1863.62210134341</v>
+        <v>1823.201705710523</v>
       </c>
       <c r="U2" t="n">
-        <v>1863.62210134341</v>
+        <v>1567.448976145121</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.62210134341</v>
+        <v>1225.34216684864</v>
       </c>
       <c r="W2" t="n">
-        <v>1863.62210134341</v>
+        <v>854.3431318169273</v>
       </c>
       <c r="X2" t="n">
-        <v>1474.169496276467</v>
+        <v>854.3431318169273</v>
       </c>
       <c r="Y2" t="n">
-        <v>1474.169496276467</v>
+        <v>854.3431318169273</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.7285545423676</v>
+        <v>839.1602883554203</v>
       </c>
       <c r="C3" t="n">
-        <v>690.0743241024599</v>
+        <v>688.5060579155125</v>
       </c>
       <c r="D3" t="n">
-        <v>559.9853567239402</v>
+        <v>558.4170905369929</v>
       </c>
       <c r="E3" t="n">
-        <v>423.538865834828</v>
+        <v>421.9705996478806</v>
       </c>
       <c r="F3" t="n">
-        <v>299.1070597179598</v>
+        <v>297.5387935310125</v>
       </c>
       <c r="G3" t="n">
-        <v>179.0472417898242</v>
+        <v>177.4789756028769</v>
       </c>
       <c r="H3" t="n">
-        <v>90.74982539042517</v>
+        <v>89.18155920347786</v>
       </c>
       <c r="I3" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="J3" t="n">
-        <v>41.36257140233675</v>
+        <v>152.9092874351168</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1017174645632</v>
+        <v>152.9092874351168</v>
       </c>
       <c r="L3" t="n">
-        <v>844.6678033628764</v>
+        <v>636.4753733334301</v>
       </c>
       <c r="M3" t="n">
-        <v>1150.645380296523</v>
+        <v>1091.63936501263</v>
       </c>
       <c r="N3" t="n">
-        <v>1150.645380296523</v>
+        <v>1584.093892053075</v>
       </c>
       <c r="O3" t="n">
-        <v>1662.50720140044</v>
+        <v>1584.093892053075</v>
       </c>
       <c r="P3" t="n">
-        <v>2068.128570116838</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2068.128570116838</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="R3" t="n">
-        <v>2068.128570116838</v>
+        <v>1965.798217667537</v>
       </c>
       <c r="S3" t="n">
-        <v>2068.128570116838</v>
+        <v>1830.867540567406</v>
       </c>
       <c r="T3" t="n">
-        <v>2023.866574374814</v>
+        <v>1653.883728766314</v>
       </c>
       <c r="U3" t="n">
-        <v>1813.803431053456</v>
+        <v>1443.820585444956</v>
       </c>
       <c r="V3" t="n">
-        <v>1591.263429424523</v>
+        <v>1221.280583816023</v>
       </c>
       <c r="W3" t="n">
-        <v>1361.14618355781</v>
+        <v>991.1633379493096</v>
       </c>
       <c r="X3" t="n">
-        <v>1171.839105907822</v>
+        <v>991.1633379493096</v>
       </c>
       <c r="Y3" t="n">
-        <v>992.524888983329</v>
+        <v>990.9566227963817</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
       <c r="C4" t="n">
-        <v>380.3734689272496</v>
+        <v>641.3263295013298</v>
       </c>
       <c r="D4" t="n">
-        <v>380.3734689272496</v>
+        <v>485.6932164038446</v>
       </c>
       <c r="E4" t="n">
-        <v>380.3734689272496</v>
+        <v>485.6932164038446</v>
       </c>
       <c r="F4" t="n">
-        <v>223.0475341402226</v>
+        <v>328.3672816168176</v>
       </c>
       <c r="G4" t="n">
-        <v>223.0475341402226</v>
+        <v>328.3672816168176</v>
       </c>
       <c r="H4" t="n">
-        <v>71.7408415762348</v>
+        <v>172.8887305783116</v>
       </c>
       <c r="I4" t="n">
-        <v>71.7408415762348</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="J4" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="K4" t="n">
-        <v>123.1976125122786</v>
+        <v>121.6293463253313</v>
       </c>
       <c r="L4" t="n">
-        <v>287.3252523860784</v>
+        <v>285.7569861991311</v>
       </c>
       <c r="M4" t="n">
-        <v>473.6168307243424</v>
+        <v>472.0485645373951</v>
       </c>
       <c r="N4" t="n">
-        <v>656.8064647555516</v>
+        <v>655.2381985686043</v>
       </c>
       <c r="O4" t="n">
-        <v>819.5112317972596</v>
+        <v>817.9429656103123</v>
       </c>
       <c r="P4" t="n">
-        <v>939.3873975738381</v>
+        <v>937.8191313868908</v>
       </c>
       <c r="Q4" t="n">
-        <v>942.8095939438891</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="R4" t="n">
-        <v>818.9086045764661</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="S4" t="n">
-        <v>616.0925207590155</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="T4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
       <c r="U4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
       <c r="V4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
       <c r="W4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
       <c r="X4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.3734689272496</v>
+        <v>811.5314474353406</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>671.2629250092314</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="C5" t="n">
-        <v>671.2629250092314</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="D5" t="n">
-        <v>671.2629250092314</v>
+        <v>1596.518074514373</v>
       </c>
       <c r="E5" t="n">
-        <v>671.2629250092314</v>
+        <v>1193.934549630918</v>
       </c>
       <c r="F5" t="n">
-        <v>592.8624438218687</v>
+        <v>777.0401111608957</v>
       </c>
       <c r="G5" t="n">
-        <v>179.6996883098719</v>
+        <v>363.8773556488988</v>
       </c>
       <c r="H5" t="n">
-        <v>179.6996883098719</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="I5" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="J5" t="n">
-        <v>186.0123443111649</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="K5" t="n">
-        <v>186.0123443111649</v>
+        <v>398.7766612428513</v>
       </c>
       <c r="L5" t="n">
-        <v>679.3326360296937</v>
+        <v>891.2311882832955</v>
       </c>
       <c r="M5" t="n">
-        <v>1116.227148120592</v>
+        <v>1383.68571532374</v>
       </c>
       <c r="N5" t="n">
-        <v>1628.088969224509</v>
+        <v>1456.682208497002</v>
       </c>
       <c r="O5" t="n">
-        <v>2068.128570116838</v>
+        <v>1456.682208497002</v>
       </c>
       <c r="P5" t="n">
-        <v>2068.128570116838</v>
+        <v>1804.869700628524</v>
       </c>
       <c r="Q5" t="n">
-        <v>2068.128570116838</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="R5" t="n">
-        <v>2030.135656402359</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="S5" t="n">
-        <v>1863.62210134341</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="T5" t="n">
-        <v>1640.121498902827</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="U5" t="n">
-        <v>1384.368769337425</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="V5" t="n">
-        <v>1042.261960040944</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="W5" t="n">
-        <v>671.2629250092314</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="X5" t="n">
-        <v>671.2629250092314</v>
+        <v>1981.959203297706</v>
       </c>
       <c r="Y5" t="n">
-        <v>671.2629250092314</v>
+        <v>1981.959203297706</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>840.7285545423676</v>
+        <v>470.7457089338673</v>
       </c>
       <c r="C6" t="n">
-        <v>690.0743241024599</v>
+        <v>320.0914784939595</v>
       </c>
       <c r="D6" t="n">
-        <v>559.9853567239402</v>
+        <v>190.0025111154398</v>
       </c>
       <c r="E6" t="n">
-        <v>423.538865834828</v>
+        <v>53.55602022632752</v>
       </c>
       <c r="F6" t="n">
-        <v>299.1070597179598</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="G6" t="n">
-        <v>179.0472417898242</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="H6" t="n">
-        <v>90.74982539042517</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="I6" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="J6" t="n">
-        <v>154.4775536220641</v>
+        <v>152.9092874351168</v>
       </c>
       <c r="K6" t="n">
-        <v>474.2166996842906</v>
+        <v>472.6484334973433</v>
       </c>
       <c r="L6" t="n">
-        <v>957.7827855826038</v>
+        <v>472.6484334973433</v>
       </c>
       <c r="M6" t="n">
-        <v>1321.90165745803</v>
+        <v>965.1029605377876</v>
       </c>
       <c r="N6" t="n">
-        <v>1321.90165745803</v>
+        <v>1349.728800498184</v>
       </c>
       <c r="O6" t="n">
-        <v>1833.763478561947</v>
+        <v>1349.728800498184</v>
       </c>
       <c r="P6" t="n">
-        <v>1833.763478561947</v>
+        <v>1755.350169214581</v>
       </c>
       <c r="Q6" t="n">
-        <v>2068.128570116838</v>
+        <v>1989.715260769472</v>
       </c>
       <c r="R6" t="n">
-        <v>2068.128570116838</v>
+        <v>1965.798217667537</v>
       </c>
       <c r="S6" t="n">
-        <v>2068.128570116838</v>
+        <v>1830.867540567406</v>
       </c>
       <c r="T6" t="n">
-        <v>2023.866574374814</v>
+        <v>1653.883728766314</v>
       </c>
       <c r="U6" t="n">
-        <v>1813.803431053456</v>
+        <v>1443.820585444956</v>
       </c>
       <c r="V6" t="n">
-        <v>1591.263429424523</v>
+        <v>1221.280583816023</v>
       </c>
       <c r="W6" t="n">
-        <v>1361.14618355781</v>
+        <v>991.1633379493096</v>
       </c>
       <c r="X6" t="n">
-        <v>1171.839105907822</v>
+        <v>801.8562602993213</v>
       </c>
       <c r="Y6" t="n">
-        <v>992.524888983329</v>
+        <v>622.5420433748286</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>655.5155364913464</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="C7" t="n">
-        <v>655.5155364913464</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="D7" t="n">
-        <v>655.5155364913464</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="E7" t="n">
-        <v>655.5155364913464</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="F7" t="n">
-        <v>498.1896017043193</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="G7" t="n">
-        <v>329.9355478037649</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="H7" t="n">
-        <v>174.4569967652589</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="I7" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="J7" t="n">
-        <v>41.36257140233675</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="K7" t="n">
-        <v>123.1976125122786</v>
+        <v>121.6293463253313</v>
       </c>
       <c r="L7" t="n">
-        <v>287.3252523860784</v>
+        <v>285.7569861991311</v>
       </c>
       <c r="M7" t="n">
-        <v>473.6168307243424</v>
+        <v>472.0485645373951</v>
       </c>
       <c r="N7" t="n">
-        <v>656.8064647555516</v>
+        <v>655.2381985686043</v>
       </c>
       <c r="O7" t="n">
-        <v>819.5112317972596</v>
+        <v>817.9429656103123</v>
       </c>
       <c r="P7" t="n">
-        <v>939.3873975738381</v>
+        <v>937.8191313868908</v>
       </c>
       <c r="Q7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="R7" t="n">
-        <v>942.8095939438891</v>
+        <v>941.2413277569418</v>
       </c>
       <c r="S7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.4252439394911</v>
       </c>
       <c r="T7" t="n">
-        <v>942.8095939438891</v>
+        <v>738.4252439394911</v>
       </c>
       <c r="U7" t="n">
-        <v>938.8459385601689</v>
+        <v>738.4252439394911</v>
       </c>
       <c r="V7" t="n">
-        <v>938.8459385601689</v>
+        <v>472.4458987603153</v>
       </c>
       <c r="W7" t="n">
-        <v>655.5155364913464</v>
+        <v>273.8746274324063</v>
       </c>
       <c r="X7" t="n">
-        <v>655.5155364913464</v>
+        <v>39.79430521538944</v>
       </c>
       <c r="Y7" t="n">
-        <v>655.5155364913464</v>
+        <v>39.79430521538944</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.290805874553</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.290805874553</v>
+        <v>1586.894343300404</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2016.150344736436</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1760.397615171035</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1418.290805874553</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1418.290805874553</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1418.290805874553</v>
+        <v>1983.385052379803</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.290805874553</v>
+        <v>1586.894343300404</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>54.70361680265978</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>374.4427628648862</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>858.0088487631995</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1443.506853769802</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4939,25 +4939,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>847.4773184619364</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1674.541184396821</v>
+        <v>1678.488465314817</v>
       </c>
       <c r="C11" t="n">
-        <v>1364.856080055483</v>
+        <v>1362.457344730526</v>
       </c>
       <c r="D11" t="n">
-        <v>1284.881308380176</v>
+        <v>1362.457344730526</v>
       </c>
       <c r="E11" t="n">
-        <v>965.7881806524509</v>
+        <v>1037.01820075985</v>
       </c>
       <c r="F11" t="n">
-        <v>632.3841393381598</v>
+        <v>697.2681432026061</v>
       </c>
       <c r="G11" t="n">
-        <v>302.711780981894</v>
+        <v>361.249768603388</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>123.311863698872</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3022.933227302557</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>3022.933227302557</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2850.670894892887</v>
+        <v>2927.348036553154</v>
       </c>
       <c r="V11" t="n">
-        <v>2592.054482752137</v>
+        <v>2927.348036553154</v>
       </c>
       <c r="W11" t="n">
-        <v>2304.545844876155</v>
+        <v>2633.49338243422</v>
       </c>
       <c r="X11" t="n">
-        <v>2304.545844876155</v>
+        <v>2321.185158280055</v>
       </c>
       <c r="Y11" t="n">
-        <v>1991.545532952487</v>
+        <v>2001.838830113435</v>
       </c>
     </row>
     <row r="12">
@@ -5124,13 +5124,13 @@
         <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>381.858273766342</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1009.629923393023</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>486.5216350970222</v>
+        <v>460.7553061632423</v>
       </c>
       <c r="C13" t="n">
-        <v>486.5216350970222</v>
+        <v>367.6945691420103</v>
       </c>
       <c r="D13" t="n">
-        <v>414.378919155268</v>
+        <v>367.6945691420103</v>
       </c>
       <c r="E13" t="n">
-        <v>342.3105041702015</v>
+        <v>367.6945691420103</v>
       </c>
       <c r="F13" t="n">
-        <v>268.4749665389053</v>
+        <v>287.5130152677619</v>
       </c>
       <c r="G13" t="n">
-        <v>183.7113097940818</v>
+        <v>196.4033422799862</v>
       </c>
       <c r="H13" t="n">
-        <v>111.7231559113067</v>
+        <v>118.0691721542589</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>114.17432335901</v>
+        <v>107.9545928392925</v>
       </c>
       <c r="K13" t="n">
-        <v>277.838302721284</v>
+        <v>265.3988416818488</v>
       </c>
       <c r="L13" t="n">
-        <v>523.7948808474157</v>
+        <v>505.1356892882631</v>
       </c>
       <c r="M13" t="n">
-        <v>791.9153974380117</v>
+        <v>767.0364753591415</v>
       </c>
       <c r="N13" t="n">
-        <v>1056.933969721553</v>
+        <v>1025.835317122965</v>
       </c>
       <c r="O13" t="n">
-        <v>1301.467675015593</v>
+        <v>1264.149291897288</v>
       </c>
       <c r="P13" t="n">
-        <v>1503.172779044503</v>
+        <v>1459.634665406481</v>
       </c>
       <c r="Q13" t="n">
-        <v>1588.423913666886</v>
+        <v>1538.666069509146</v>
       </c>
       <c r="R13" t="n">
-        <v>1548.013321455194</v>
+        <v>1491.909461054502</v>
       </c>
       <c r="S13" t="n">
-        <v>1428.687634793474</v>
+        <v>1366.23775814983</v>
       </c>
       <c r="T13" t="n">
-        <v>1276.458980117439</v>
+        <v>1207.663087230843</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.510585515071</v>
+        <v>999.3686763855226</v>
       </c>
       <c r="V13" t="n">
-        <v>892.0216374916262</v>
+        <v>810.5337121191255</v>
       </c>
       <c r="W13" t="n">
-        <v>692.1816325785347</v>
+        <v>604.347690963082</v>
       </c>
       <c r="X13" t="n">
-        <v>626.1432991246479</v>
+        <v>460.7553061632423</v>
       </c>
       <c r="Y13" t="n">
-        <v>486.5216350970222</v>
+        <v>460.7553061632423</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1710.771210823141</v>
+        <v>1520.303839177572</v>
       </c>
       <c r="C14" t="n">
-        <v>1401.086106481803</v>
+        <v>1222.069018967691</v>
       </c>
       <c r="D14" t="n">
-        <v>1099.135374854202</v>
+        <v>1222.069018967691</v>
       </c>
       <c r="E14" t="n">
-        <v>780.0422471264772</v>
+        <v>914.4261753714238</v>
       </c>
       <c r="F14" t="n">
-        <v>446.6382058121859</v>
+        <v>592.4724181885899</v>
       </c>
       <c r="G14" t="n">
-        <v>116.9658474559199</v>
+        <v>274.2503439637814</v>
       </c>
       <c r="H14" t="n">
-        <v>116.9658474559199</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2965.946179920924</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2793.683847511253</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.067435370503</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.067435370503</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X14" t="n">
-        <v>2229.10522745929</v>
+        <v>2127.407931393991</v>
       </c>
       <c r="Y14" t="n">
-        <v>1916.104915535622</v>
+        <v>1825.85790360178</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>501.1679408902356</v>
+        <v>493.0843669551007</v>
       </c>
       <c r="C16" t="n">
-        <v>414.4532201119557</v>
+        <v>417.8199303082783</v>
       </c>
       <c r="D16" t="n">
-        <v>342.3105041702014</v>
+        <v>357.1274984979814</v>
       </c>
       <c r="E16" t="n">
-        <v>342.3105041702014</v>
+        <v>296.5093676443726</v>
       </c>
       <c r="F16" t="n">
-        <v>268.4749665389053</v>
+        <v>234.1241141445337</v>
       </c>
       <c r="G16" t="n">
-        <v>183.7113097940818</v>
+        <v>160.8107415311674</v>
       </c>
       <c r="H16" t="n">
-        <v>111.7231559113067</v>
+        <v>100.2728717798498</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>114.1743233590099</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K16" t="n">
-        <v>277.8383027212838</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>523.7948808474155</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M16" t="n">
-        <v>791.9153974380114</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1056.933969721553</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1301.467675015592</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1503.172779044503</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
-        <v>1588.423913666886</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R16" t="n">
-        <v>1548.013321455194</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1548.013321455194</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
-        <v>1395.784666779159</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U16" t="n">
-        <v>1193.836272176791</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1011.347324153346</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>811.5073192402544</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>660.9173941789685</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>521.2957301513428</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
         <v>68.7795079292422</v>
@@ -5513,19 +5513,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,19 +5592,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O18" t="n">
         <v>1740.468202408463</v>
@@ -5677,19 +5677,19 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O19" t="n">
-        <v>969.324157721467</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498046</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.79633049859</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975429</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099291</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803407</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924234</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,10 +5780,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5792,10 +5792,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>318.9689542635005</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885602</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369578</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218809</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634918</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588731</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072696</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462928</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>67.69877031229859</v>
       </c>
       <c r="K22" t="n">
-        <v>278.5901810446716</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L22" t="n">
-        <v>442.7178209184714</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567354</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879445</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296525</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106231</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.06281534124</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918821</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161914</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.955836619424</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.30217123301</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984015</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974532</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924224</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6145,22 +6145,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.162273879924</v>
+        <v>1696.104288560125</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.927453670044</v>
+        <v>1397.869468350244</v>
       </c>
       <c r="D26" t="n">
-        <v>1288.4270061739</v>
+        <v>1289.995272360847</v>
       </c>
       <c r="E26" t="n">
-        <v>980.7841625776326</v>
+        <v>982.3524287645798</v>
       </c>
       <c r="F26" t="n">
-        <v>658.8304053947987</v>
+        <v>660.3986715817459</v>
       </c>
       <c r="G26" t="n">
-        <v>340.6083311699903</v>
+        <v>342.1765973569375</v>
       </c>
       <c r="H26" t="n">
-        <v>111.4659620236692</v>
+        <v>113.0342282106165</v>
       </c>
       <c r="I26" t="n">
-        <v>68.06952640332239</v>
+        <v>69.6377925902697</v>
       </c>
       <c r="J26" t="n">
-        <v>305.7706610417238</v>
+        <v>214.2875654990978</v>
       </c>
       <c r="K26" t="n">
-        <v>757.8043787987589</v>
+        <v>662.5304157593944</v>
       </c>
       <c r="L26" t="n">
-        <v>1300.776976321264</v>
+        <v>1155.850707477923</v>
       </c>
       <c r="M26" t="n">
-        <v>1846.777876365845</v>
+        <v>1794.902969252077</v>
       </c>
       <c r="N26" t="n">
-        <v>2374.589160003307</v>
+        <v>2322.714252889539</v>
       </c>
       <c r="O26" t="n">
-        <v>2814.628760895635</v>
+        <v>2855.805215511441</v>
       </c>
       <c r="P26" t="n">
-        <v>3162.816253027157</v>
+        <v>3203.992707642963</v>
       </c>
       <c r="Q26" t="n">
-        <v>3347.661813168106</v>
+        <v>3481.889629513485</v>
       </c>
       <c r="R26" t="n">
-        <v>3403.476320166119</v>
+        <v>3481.889629513485</v>
       </c>
       <c r="S26" t="n">
-        <v>3331.903446394358</v>
+        <v>3410.316755741724</v>
       </c>
       <c r="T26" t="n">
-        <v>3203.343525240963</v>
+        <v>3281.756834588329</v>
       </c>
       <c r="U26" t="n">
-        <v>3042.53147696275</v>
+        <v>3120.944786310116</v>
       </c>
       <c r="V26" t="n">
-        <v>2795.365348953457</v>
+        <v>2873.778658300822</v>
       </c>
       <c r="W26" t="n">
-        <v>2519.306995208933</v>
+        <v>2597.720304556298</v>
       </c>
       <c r="X26" t="n">
-        <v>2484.266366096344</v>
+        <v>2303.208380776544</v>
       </c>
       <c r="Y26" t="n">
-        <v>2182.716338304133</v>
+        <v>2001.658352984333</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>867.4355095433534</v>
+        <v>869.0037757303007</v>
       </c>
       <c r="C27" t="n">
-        <v>716.7812791034456</v>
+        <v>718.3495452903929</v>
       </c>
       <c r="D27" t="n">
-        <v>586.692311724926</v>
+        <v>588.2605779118733</v>
       </c>
       <c r="E27" t="n">
-        <v>450.2458208358136</v>
+        <v>451.8140870227609</v>
       </c>
       <c r="F27" t="n">
-        <v>325.8140147189454</v>
+        <v>327.3822809058927</v>
       </c>
       <c r="G27" t="n">
-        <v>205.7541967908099</v>
+        <v>207.3224629777572</v>
       </c>
       <c r="H27" t="n">
-        <v>117.4567803914108</v>
+        <v>119.0250465783581</v>
       </c>
       <c r="I27" t="n">
-        <v>68.06952640332239</v>
+        <v>69.6377925902697</v>
       </c>
       <c r="J27" t="n">
-        <v>181.1845086230498</v>
+        <v>182.7527748099971</v>
       </c>
       <c r="K27" t="n">
-        <v>500.9236546852762</v>
+        <v>502.4919208722235</v>
       </c>
       <c r="L27" t="n">
-        <v>984.4897405835895</v>
+        <v>986.0580067705368</v>
       </c>
       <c r="M27" t="n">
-        <v>1464.26341007158</v>
+        <v>986.0580067705368</v>
       </c>
       <c r="N27" t="n">
-        <v>1464.26341007158</v>
+        <v>1231.466584703637</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.783692662561</v>
+        <v>1747.986867294618</v>
       </c>
       <c r="P27" t="n">
-        <v>2386.405061378958</v>
+        <v>2153.608236011015</v>
       </c>
       <c r="Q27" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.973327565906</v>
       </c>
       <c r="R27" t="n">
-        <v>2362.488018277023</v>
+        <v>2364.05628446397</v>
       </c>
       <c r="S27" t="n">
-        <v>2227.557341176891</v>
+        <v>2229.125607363839</v>
       </c>
       <c r="T27" t="n">
-        <v>2050.5735293758</v>
+        <v>2052.141795562748</v>
       </c>
       <c r="U27" t="n">
-        <v>1840.510386054442</v>
+        <v>1842.078652241389</v>
       </c>
       <c r="V27" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.538650612456</v>
       </c>
       <c r="W27" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.421404745743</v>
       </c>
       <c r="X27" t="n">
-        <v>1198.546060908807</v>
+        <v>1200.114327095755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.800110171262</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>499.0347656543072</v>
+        <v>500.6030318412542</v>
       </c>
       <c r="C28" t="n">
-        <v>423.7703290074847</v>
+        <v>425.3385951944317</v>
       </c>
       <c r="D28" t="n">
-        <v>363.0778971971879</v>
+        <v>364.6461633841348</v>
       </c>
       <c r="E28" t="n">
-        <v>302.4597663435791</v>
+        <v>304.0280325305259</v>
       </c>
       <c r="F28" t="n">
-        <v>240.0745128437404</v>
+        <v>241.6427790306871</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7611402303741</v>
+        <v>168.3294064173209</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2232704790564</v>
+        <v>107.7915366660035</v>
       </c>
       <c r="I28" t="n">
-        <v>68.06952640332239</v>
+        <v>69.6377925902697</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3471455354582</v>
+        <v>132.9154117224056</v>
       </c>
       <c r="K28" t="n">
-        <v>306.2335483749733</v>
+        <v>307.8018145619202</v>
       </c>
       <c r="L28" t="n">
-        <v>563.4125499783462</v>
+        <v>564.980816165293</v>
       </c>
       <c r="M28" t="n">
-        <v>842.7554900461836</v>
+        <v>844.3237562331302</v>
       </c>
       <c r="N28" t="n">
-        <v>1118.996485806966</v>
+        <v>1120.564751993913</v>
       </c>
       <c r="O28" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.320880765194</v>
       </c>
       <c r="P28" t="n">
-        <v>1587.680142084399</v>
+        <v>1589.248408271346</v>
       </c>
       <c r="Q28" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.72196637097</v>
       </c>
       <c r="R28" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.761658290736</v>
       </c>
       <c r="S28" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.886255760473</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.539619028949</v>
+        <v>1408.107885215896</v>
       </c>
       <c r="U28" t="n">
-        <v>1216.041508558038</v>
+        <v>1217.609774744985</v>
       </c>
       <c r="V28" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.571110852998</v>
       </c>
       <c r="W28" t="n">
-        <v>856.6131238844171</v>
+        <v>858.1813900713639</v>
       </c>
       <c r="X28" t="n">
-        <v>717.4734829545885</v>
+        <v>719.0417491415354</v>
       </c>
       <c r="Y28" t="n">
-        <v>589.3021030584201</v>
+        <v>590.8703692453671</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1833.765838259578</v>
+        <v>1878.730540066872</v>
       </c>
       <c r="C29" t="n">
-        <v>1535.531018049697</v>
+        <v>1580.495719856991</v>
       </c>
       <c r="D29" t="n">
-        <v>1245.030570553553</v>
+        <v>1289.995272360847</v>
       </c>
       <c r="E29" t="n">
-        <v>937.3877269572857</v>
+        <v>982.3524287645801</v>
       </c>
       <c r="F29" t="n">
-        <v>615.4339697744518</v>
+        <v>660.3986715817462</v>
       </c>
       <c r="G29" t="n">
-        <v>297.2118955496434</v>
+        <v>342.1765973569377</v>
       </c>
       <c r="H29" t="n">
-        <v>68.06952640332239</v>
+        <v>113.0342282106165</v>
       </c>
       <c r="I29" t="n">
-        <v>68.06952640332239</v>
+        <v>69.6377925902697</v>
       </c>
       <c r="J29" t="n">
-        <v>212.7192993121505</v>
+        <v>307.3389272286711</v>
       </c>
       <c r="K29" t="n">
-        <v>571.7016553396123</v>
+        <v>759.3726449857062</v>
       </c>
       <c r="L29" t="n">
-        <v>1065.021947058141</v>
+        <v>1345.744298433808</v>
       </c>
       <c r="M29" t="n">
-        <v>1611.022847102722</v>
+        <v>1891.745198478389</v>
       </c>
       <c r="N29" t="n">
-        <v>2138.834130740184</v>
+        <v>2508.816976348686</v>
       </c>
       <c r="O29" t="n">
-        <v>2628.526037436488</v>
+        <v>2948.856577241015</v>
       </c>
       <c r="P29" t="n">
-        <v>3069.764891297584</v>
+        <v>3297.044069372536</v>
       </c>
       <c r="Q29" t="n">
-        <v>3347.661813168106</v>
+        <v>3481.889629513485</v>
       </c>
       <c r="R29" t="n">
-        <v>3403.476320166119</v>
+        <v>3481.889629513485</v>
       </c>
       <c r="S29" t="n">
-        <v>3331.903446394358</v>
+        <v>3410.316755741724</v>
       </c>
       <c r="T29" t="n">
-        <v>3203.343525240963</v>
+        <v>3281.756834588329</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.53147696275</v>
+        <v>3120.944786310116</v>
       </c>
       <c r="V29" t="n">
-        <v>2795.365348953457</v>
+        <v>2873.778658300823</v>
       </c>
       <c r="W29" t="n">
-        <v>2519.306995208932</v>
+        <v>2597.720304556299</v>
       </c>
       <c r="X29" t="n">
-        <v>2440.869930475997</v>
+        <v>2303.208380776544</v>
       </c>
       <c r="Y29" t="n">
-        <v>2139.319902683786</v>
+        <v>2001.658352984333</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>867.4355095433534</v>
+        <v>869.0037757303007</v>
       </c>
       <c r="C30" t="n">
-        <v>716.7812791034456</v>
+        <v>718.3495452903929</v>
       </c>
       <c r="D30" t="n">
-        <v>586.692311724926</v>
+        <v>588.2605779118733</v>
       </c>
       <c r="E30" t="n">
-        <v>450.2458208358136</v>
+        <v>451.8140870227609</v>
       </c>
       <c r="F30" t="n">
-        <v>325.8140147189454</v>
+        <v>327.3822809058927</v>
       </c>
       <c r="G30" t="n">
-        <v>205.7541967908099</v>
+        <v>207.3224629777572</v>
       </c>
       <c r="H30" t="n">
-        <v>117.4567803914108</v>
+        <v>119.0250465783581</v>
       </c>
       <c r="I30" t="n">
-        <v>68.06952640332239</v>
+        <v>69.6377925902697</v>
       </c>
       <c r="J30" t="n">
-        <v>181.1845086230498</v>
+        <v>182.7527748099971</v>
       </c>
       <c r="K30" t="n">
-        <v>500.9236546852762</v>
+        <v>502.4919208722235</v>
       </c>
       <c r="L30" t="n">
-        <v>984.4897405835895</v>
+        <v>587.9034241376849</v>
       </c>
       <c r="M30" t="n">
-        <v>984.4897405835895</v>
+        <v>1215.675073764366</v>
       </c>
       <c r="N30" t="n">
-        <v>1229.898318516689</v>
+        <v>1871.453044974925</v>
       </c>
       <c r="O30" t="n">
-        <v>1746.41860110767</v>
+        <v>2387.973327565906</v>
       </c>
       <c r="P30" t="n">
-        <v>2152.039969824068</v>
+        <v>2387.973327565906</v>
       </c>
       <c r="Q30" t="n">
-        <v>2386.405061378958</v>
+        <v>2387.973327565906</v>
       </c>
       <c r="R30" t="n">
-        <v>2362.488018277023</v>
+        <v>2364.05628446397</v>
       </c>
       <c r="S30" t="n">
-        <v>2227.557341176891</v>
+        <v>2229.125607363839</v>
       </c>
       <c r="T30" t="n">
-        <v>2050.5735293758</v>
+        <v>2052.141795562748</v>
       </c>
       <c r="U30" t="n">
-        <v>1840.510386054442</v>
+        <v>1842.078652241389</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.970384425509</v>
+        <v>1619.538650612456</v>
       </c>
       <c r="W30" t="n">
-        <v>1387.853138558796</v>
+        <v>1389.421404745743</v>
       </c>
       <c r="X30" t="n">
-        <v>1198.546060908807</v>
+        <v>1200.114327095755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1019.231843984315</v>
+        <v>1020.800110171262</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>499.0347656543076</v>
+        <v>500.6030318412549</v>
       </c>
       <c r="C31" t="n">
-        <v>423.7703290074851</v>
+        <v>425.3385951944325</v>
       </c>
       <c r="D31" t="n">
-        <v>363.0778971971882</v>
+        <v>364.6461633841355</v>
       </c>
       <c r="E31" t="n">
-        <v>302.4597663435791</v>
+        <v>304.0280325305264</v>
       </c>
       <c r="F31" t="n">
-        <v>240.0745128437404</v>
+        <v>241.6427790306877</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7611402303744</v>
+        <v>168.3294064173216</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2232704790567</v>
+        <v>107.7915366660038</v>
       </c>
       <c r="I31" t="n">
-        <v>68.06952640332239</v>
+        <v>69.6377925902697</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3471455354583</v>
+        <v>132.9154117224057</v>
       </c>
       <c r="K31" t="n">
-        <v>306.2335483749739</v>
+        <v>307.8018145619208</v>
       </c>
       <c r="L31" t="n">
-        <v>563.412549978347</v>
+        <v>564.9808161652938</v>
       </c>
       <c r="M31" t="n">
-        <v>842.7554900461844</v>
+        <v>844.3237562331311</v>
       </c>
       <c r="N31" t="n">
-        <v>1118.996485806967</v>
+        <v>1120.564751993914</v>
       </c>
       <c r="O31" t="n">
-        <v>1374.752614578248</v>
+        <v>1376.320880765195</v>
       </c>
       <c r="P31" t="n">
-        <v>1587.6801420844</v>
+        <v>1589.248408271347</v>
       </c>
       <c r="Q31" t="n">
-        <v>1684.153700184024</v>
+        <v>1685.721966370971</v>
       </c>
       <c r="R31" t="n">
-        <v>1655.193392103789</v>
+        <v>1656.761658290736</v>
       </c>
       <c r="S31" t="n">
-        <v>1547.317989573527</v>
+        <v>1548.886255760474</v>
       </c>
       <c r="T31" t="n">
-        <v>1406.539619028949</v>
+        <v>1408.107885215897</v>
       </c>
       <c r="U31" t="n">
-        <v>1216.041508558039</v>
+        <v>1217.609774744986</v>
       </c>
       <c r="V31" t="n">
-        <v>1045.002844666051</v>
+        <v>1046.571110852999</v>
       </c>
       <c r="W31" t="n">
-        <v>856.6131238844173</v>
+        <v>858.1813900713646</v>
       </c>
       <c r="X31" t="n">
-        <v>717.4734829545888</v>
+        <v>719.0417491415361</v>
       </c>
       <c r="Y31" t="n">
-        <v>589.3021030584205</v>
+        <v>590.8703692453678</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F32" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G32" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6786,16 +6786,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H34" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I34" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>278.5901810446697</v>
+        <v>149.5338114222408</v>
       </c>
       <c r="L34" t="n">
-        <v>442.7178209184696</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M34" t="n">
-        <v>629.0093992567336</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N34" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O34" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P34" t="n">
         <v>1094.779966106229</v>
@@ -6886,22 +6886,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W34" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X34" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y34" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
@@ -6923,22 +6923,22 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924234</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6962,25 +6962,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012521</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750519</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P37" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974515</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7336,16 +7336,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
         <v>1089.200323498045</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7403,7 +7403,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7582,7 +7582,7 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P43" t="n">
         <v>1094.779966106229</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1471.6890844189</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1459.338524845974</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1187.77783237064</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>899.0747437951836</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>596.0607416331602</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>296.7784224291623</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>86.57580830365181</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3053.323266454826</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2943.703100322241</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2801.830807064839</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2573.604434076356</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2316.485835352643</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2040.913666593699</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1758.303393822298</v>
       </c>
     </row>
     <row r="45">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>360.5060818094265</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>304.1814001834146</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>262.4287233939282</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>220.7503475611296</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>177.3048490821014</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>122.9312314895459</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>81.33311675903875</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7816,40 +7816,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>683.142663665514</v>
+        <v>789.1772366828002</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072221</v>
+        <v>1063.496219349978</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838006</v>
+        <v>1294.986600752026</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1375.167221151848</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1365.146668092424</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1276.211020582972</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>1154.372405059205</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>982.8140496091052</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>830.7151407379282</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>661.2651749771047</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>541.0652890680867</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>431.8336641927289</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7976,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>378.7723353693429</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>650.6769849228597</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>615.7652258774283</v>
       </c>
       <c r="N2" t="n">
-        <v>666.1506338669935</v>
+        <v>646.5473065301521</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>401.4553815782479</v>
+        <v>552.1487298060797</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>582.8009280465346</v>
       </c>
       <c r="O3" t="n">
-        <v>609.7197014180983</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>650.6769849228597</v>
       </c>
       <c r="M5" t="n">
-        <v>591.0326395683314</v>
+        <v>647.1538667900952</v>
       </c>
       <c r="N5" t="n">
-        <v>666.1506338669935</v>
+        <v>222.8523228259276</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,19 +8298,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>460.1839623275201</v>
+        <v>589.8159372416799</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>473.8830623091126</v>
       </c>
       <c r="O6" t="n">
-        <v>609.7197014180983</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8453,13 +8453,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>311.2540453751045</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8468,10 +8468,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>89.90975703143043</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>270.6001074205032</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,16 +8772,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
-        <v>168.5060516210921</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9012,13 +9012,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,13 +9249,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>234.783646787533</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>577.0069902189988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9972,7 +9972,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>176.3345925796064</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118428</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,7 +10434,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>577.006990218999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
         <v>85.37211285416666</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,16 +10671,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>108.8653421701425</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053023</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>219.7562003527719</v>
+        <v>305.213780391848</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.910756970052688</v>
       </c>
       <c r="I11" t="n">
-        <v>54.29825255428618</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>88.475482404709</v>
       </c>
       <c r="T11" t="n">
-        <v>138.6101032320038</v>
+        <v>144.8926593125265</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>262.3128040998658</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>302.9025858321001</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.7004453202146</v>
+        <v>106.9830014007373</v>
       </c>
       <c r="C13" t="n">
-        <v>85.84757357049703</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>77.70384486285946</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>77.63028691573857</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>83.70607569132514</v>
+        <v>13.21012093935471</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>144.5080034678721</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.5539374047528</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>238.1867267450006</v>
+        <v>16.84104135778855</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.1929263241863</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>284.6335514972218</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.77393395171875</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>71.34773083521587</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>118.1324297951025</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>180.7999889916796</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>256.8765817204945</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>180.7999889916806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>213.9141104563515</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>264.2750605599827</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25916,7 +25916,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>792100.3874999947</v>
+        <v>790916.6633503013</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>792100.3874999947</v>
+        <v>790916.6633503013</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738852.0213034012</v>
+        <v>727478.4984343422</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>738852.0213034012</v>
+        <v>759373.5679620604</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>803883.3951435462</v>
+        <v>803883.3951435464</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782924.8348409713</v>
+        <v>789131.9240417152</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782924.834840971</v>
+        <v>789131.9240417151</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803883.3951435464</v>
+        <v>782321.1929524573</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522963.3164707347</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="C2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="D2" t="n">
-        <v>522963.3164707345</v>
+        <v>522963.3164707346</v>
       </c>
       <c r="E2" t="n">
-        <v>476965.5154618513</v>
+        <v>468920.8285544683</v>
       </c>
       <c r="F2" t="n">
-        <v>476965.5154618514</v>
+        <v>491480.7557813913</v>
       </c>
       <c r="G2" t="n">
         <v>522963.316470735</v>
@@ -26335,25 +26335,25 @@
         <v>522963.3164707349</v>
       </c>
       <c r="J2" t="n">
-        <v>508138.9689396451</v>
+        <v>512529.3491060251</v>
       </c>
       <c r="K2" t="n">
-        <v>508138.9689396452</v>
+        <v>512529.3491060246</v>
       </c>
       <c r="L2" t="n">
-        <v>522963.3164707349</v>
+        <v>522963.3164707351</v>
       </c>
       <c r="M2" t="n">
         <v>522963.3164707351</v>
       </c>
       <c r="N2" t="n">
+        <v>522963.3164707349</v>
+      </c>
+      <c r="O2" t="n">
         <v>522963.316470735</v>
       </c>
-      <c r="O2" t="n">
-        <v>522963.3164707349</v>
-      </c>
       <c r="P2" t="n">
-        <v>522963.3164707349</v>
+        <v>507712.0027258178</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>173269.3627008162</v>
+        <v>166699.8368337119</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23104.65434918281</v>
+        <v>29194.03591982586</v>
       </c>
       <c r="E3" t="n">
-        <v>121384.3061055979</v>
+        <v>116358.2612411797</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>14094.66989653243</v>
       </c>
       <c r="G3" t="n">
-        <v>38163.58090512862</v>
+        <v>29094.95587301435</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191768.873039928</v>
+        <v>186742.8281755099</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>14094.66989653241</v>
       </c>
       <c r="L3" t="n">
-        <v>67258.53677814295</v>
+        <v>58189.91174602872</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989162</v>
+        <v>46121.92123989166</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>37029.43867432455</v>
+        <v>32003.39380990645</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>227130.6514524139</v>
+        <v>231230.2083637482</v>
       </c>
       <c r="C4" t="n">
-        <v>227130.6514524138</v>
+        <v>231230.2083637483</v>
       </c>
       <c r="D4" t="n">
         <v>211575.8953047903</v>
       </c>
       <c r="E4" t="n">
-        <v>150305.2310244381</v>
+        <v>143956.4208430107</v>
       </c>
       <c r="F4" t="n">
-        <v>150305.2310244381</v>
+        <v>161760.5563326216</v>
       </c>
       <c r="G4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="H4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="I4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="J4" t="n">
-        <v>175176.4244224581</v>
+        <v>178712.2635077686</v>
       </c>
       <c r="K4" t="n">
-        <v>175176.424422458</v>
+        <v>178712.2635077686</v>
       </c>
       <c r="L4" t="n">
-        <v>186364.8769761035</v>
+        <v>186364.8769761036</v>
       </c>
       <c r="M4" t="n">
         <v>186364.8769761036</v>
       </c>
       <c r="N4" t="n">
+        <v>186364.8769761035</v>
+      </c>
+      <c r="O4" t="n">
         <v>186364.8769761036</v>
       </c>
-      <c r="O4" t="n">
-        <v>186364.8769761035</v>
-      </c>
       <c r="P4" t="n">
-        <v>186364.8769761035</v>
+        <v>174444.3868052008</v>
       </c>
     </row>
     <row r="5">
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65063.15426577593</v>
+        <v>63871.27196369597</v>
       </c>
       <c r="C5" t="n">
-        <v>65063.15426577593</v>
+        <v>63871.27196369597</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>54159.30171162809</v>
+        <v>53631.13350449462</v>
       </c>
       <c r="F5" t="n">
-        <v>54159.30171162809</v>
+        <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
-        <v>59634.59252030632</v>
+        <v>60826.47482238628</v>
       </c>
       <c r="K5" t="n">
-        <v>59634.59252030632</v>
+        <v>60826.47482238628</v>
       </c>
       <c r="L5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26509,7 +26509,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>56688.61331110518</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57500.14805172861</v>
+        <v>61161.99930957847</v>
       </c>
       <c r="C6" t="n">
-        <v>230769.5107525448</v>
+        <v>227861.8361432904</v>
       </c>
       <c r="D6" t="n">
-        <v>218697.3095395882</v>
+        <v>212607.9279689453</v>
       </c>
       <c r="E6" t="n">
-        <v>151116.6766201872</v>
+        <v>154788.6595591755</v>
       </c>
       <c r="F6" t="n">
-        <v>272500.9827257852</v>
+        <v>260404.679489227</v>
       </c>
       <c r="G6" t="n">
-        <v>240265.0892739832</v>
+        <v>249333.7143060974</v>
       </c>
       <c r="H6" t="n">
-        <v>278428.6701791121</v>
+        <v>278428.6701791119</v>
       </c>
       <c r="I6" t="n">
         <v>278428.6701791117</v>
       </c>
       <c r="J6" t="n">
-        <v>81559.0789569527</v>
+        <v>86211.80340255106</v>
       </c>
       <c r="K6" t="n">
-        <v>273327.9519968808</v>
+        <v>258859.961681528</v>
       </c>
       <c r="L6" t="n">
-        <v>211170.1334009688</v>
+        <v>220238.7584330831</v>
       </c>
       <c r="M6" t="n">
         <v>232306.7489392202</v>
       </c>
       <c r="N6" t="n">
-        <v>278428.6701791118</v>
+        <v>278428.6701791117</v>
       </c>
       <c r="O6" t="n">
-        <v>241399.2315047872</v>
+        <v>246425.2763692054</v>
       </c>
       <c r="P6" t="n">
-        <v>278428.6701791117</v>
+        <v>276526.4118724604</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="F2" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
@@ -26716,7 +26716,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292094</v>
+        <v>497.428815192368</v>
       </c>
       <c r="C4" t="n">
-        <v>517.0321425292094</v>
+        <v>497.428815192368</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,10 +26811,10 @@
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>850.8690800415297</v>
+        <v>870.4724073783713</v>
       </c>
       <c r="K4" t="n">
-        <v>850.8690800415297</v>
+        <v>870.4724073783713</v>
       </c>
       <c r="L4" t="n">
         <v>776.4890963014441</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>17.61833737066553</v>
       </c>
       <c r="G2" t="n">
-        <v>47.70447613141077</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.28679834290571</v>
+        <v>40.00424226238303</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.61833737066552</v>
       </c>
       <c r="L2" t="n">
-        <v>84.0731709726787</v>
+        <v>72.73738968253589</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290568</v>
+        <v>40.00424226238306</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.0321425292094</v>
+        <v>497.428815192368</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>74.37998374008566</v>
+        <v>93.98331107692707</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.412126269295</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.61833737066553</v>
       </c>
       <c r="L2" t="n">
-        <v>47.70447613141077</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>46.28679834290571</v>
+        <v>40.00424226238303</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.61833737066552</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>517.0321425292094</v>
+        <v>497.428815192368</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>74.37998374008566</v>
+        <v>93.98331107692707</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,19 +27382,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>104.2643934761043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.91097334129728</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>131.3945978984775</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.3164267538492</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>4.130139889773062</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>104.949079795063</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27619,22 +27619,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>335.109017709833</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.5870995191288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>109.5633901948708</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>131.3945978984775</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>278.660385010635</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>83.91153943350423</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27856,10 +27856,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>77.72382176453408</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>7.117260845870248</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>68.2332193153226</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,10 +28029,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="C11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="D11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="E11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="F11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="G11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="H11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="I11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="T11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="U11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="V11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="W11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="X11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="Y11" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="C13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="D13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="E13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="F13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="G13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="H13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="I13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="J13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="K13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="L13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="M13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="N13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="O13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="P13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="R13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="S13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="T13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="U13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="V13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="W13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="X13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
       <c r="Y13" t="n">
-        <v>82.65549318417364</v>
+        <v>76.37293710365094</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y14" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y16" t="n">
-        <v>82.65549318417364</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="17">
@@ -28749,22 +28749,22 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.636002634528316</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>35.71049010668742</v>
       </c>
       <c r="K22" t="n">
-        <v>35.71049010669012</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7104901066881</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>90.16211538670177</v>
       </c>
       <c r="L26" t="n">
-        <v>50.15384424644083</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,31 +29533,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>90.16211538670245</v>
       </c>
       <c r="O29" t="n">
-        <v>50.1538442464406</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29928,13 +29928,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
+        <v>5.636002634528666</v>
+      </c>
+      <c r="L34" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,40 +30141,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485211</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>128.2979821082768</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30408,25 +30408,25 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082774</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30654,10 +30654,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P43" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528481</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30888,40 +30888,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.636002634528808</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155844</v>
+        <v>77.53376164623329</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>112.7416319449189</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>235.7139321901055</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>497.428815192368</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>466.0401742797011</v>
       </c>
       <c r="N2" t="n">
-        <v>517.0321425292094</v>
+        <v>497.428815192368</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>309.0682595289359</v>
+        <v>459.7616077567678</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>497.428815192368</v>
       </c>
       <c r="O3" t="n">
-        <v>517.0321425292094</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>497.428815192368</v>
       </c>
       <c r="M5" t="n">
-        <v>441.3075879706042</v>
+        <v>497.428815192368</v>
       </c>
       <c r="N5" t="n">
-        <v>517.0321425292094</v>
+        <v>73.73383148814347</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>367.7968402782082</v>
+        <v>497.428815192368</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>388.5109494549459</v>
       </c>
       <c r="O6" t="n">
-        <v>517.0321425292094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35173,13 +35173,13 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>168.1956421958672</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35188,10 +35188,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.465299698097082</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>178.2129853711913</v>
+      </c>
+      <c r="N9" t="n">
         <v>591.4121262692951</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
-        <v>75.81849273220321</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58100571201457</v>
+        <v>46.29844963149187</v>
       </c>
       <c r="K13" t="n">
-        <v>165.3171508709836</v>
+        <v>159.0345947904609</v>
       </c>
       <c r="L13" t="n">
-        <v>248.4409880061936</v>
+        <v>242.1584319256709</v>
       </c>
       <c r="M13" t="n">
-        <v>270.8288046369656</v>
+        <v>264.5462485564429</v>
       </c>
       <c r="N13" t="n">
-        <v>267.6955275591324</v>
+        <v>261.4129714786097</v>
       </c>
       <c r="O13" t="n">
-        <v>247.0037427212525</v>
+        <v>240.7211866407298</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7425293221318</v>
+        <v>197.4599732416091</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.11225719432612</v>
+        <v>79.82970111380342</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58100571201457</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3171508709836</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>248.4409880061936</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M16" t="n">
-        <v>270.8288046369656</v>
+        <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>267.6955275591324</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O16" t="n">
-        <v>247.0037427212525</v>
+        <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7425293221318</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.11225719432612</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,13 +35969,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36045,22 +36045,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565486</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O19" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434252</v>
+        <v>5.636002634528348</v>
       </c>
       <c r="K22" t="n">
-        <v>118.3721477935001</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.63600263452903</v>
+        <v>5.636002634529087</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,7 +36522,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36531,7 +36531,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>452.7705558184814</v>
       </c>
       <c r="L26" t="n">
-        <v>548.4571692146518</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>484.6198681696869</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36692,7 +36692,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>623.3048261316136</v>
       </c>
       <c r="O29" t="n">
-        <v>494.6382895922269</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>86.27424572268819</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576762</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>484.6198681696871</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>213.0216270023944</v>
+        <v>88.29766032133864</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,16 +37391,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>23.49322931597588</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>221.4806783164134</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516621</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.636002634527946</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37704,7 +37704,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528635</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716079</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38184,16 +38184,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094876</v>
+        <v>297.7816663198777</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>277.0898814819977</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8286680828771</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257369</v>
+        <v>80.99052565638577</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
